--- a/Dummy_Data.xlsx
+++ b/Dummy_Data.xlsx
@@ -477,65 +477,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G2" t="n">
-        <v>44.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Virat Sharma</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ACK</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G3" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,134 +547,134 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G4" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Virat Sharma</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G5" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G6" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Call backs</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G7" t="n">
-        <v>44.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G8" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="9">
@@ -684,55 +684,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Quotes</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G9" t="n">
-        <v>4.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G10" t="n">
-        <v>44.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="11">
@@ -742,55 +742,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CL Error</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G11" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G12" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="13">
@@ -800,32 +800,32 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>CLOSE</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G13" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -833,80 +833,80 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MKT</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G14" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CL Error</t>
+          <t>HNW2</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G15" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>ACK</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G16" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="17">
@@ -916,90 +916,90 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G17" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G18" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Virat Sharma</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HNW4</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G19" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1007,28 +1007,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Virat Sharma</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CL Error</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G20" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1036,22 +1036,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HNW4</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G21" t="n">
-        <v>8.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="22">
@@ -1061,90 +1061,90 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HNW1</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G22" t="n">
-        <v>4.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G23" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HNW4</t>
+          <t>ROF</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G24" t="n">
-        <v>44.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1156,53 +1156,53 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CL NEW</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G25" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G26" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1210,22 +1210,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G27" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="28">
@@ -1243,47 +1243,47 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G28" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G29" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="30">
@@ -1293,36 +1293,36 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>Quotes</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G30" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1330,18 +1330,18 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Quotes</t>
+          <t>HNW3</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G31" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="32">
@@ -1351,36 +1351,36 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>REN</t>
+          <t>ROF</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G32" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HNW1</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G33" t="n">
-        <v>44.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1417,86 +1417,86 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>REN</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G34" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CL Error</t>
+          <t>HNW3</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G35" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CL NEW</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1504,47 +1504,47 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Quotes</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G37" t="n">
-        <v>4.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G38" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="39">
@@ -1554,26 +1554,26 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>ACK</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G39" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="40">
@@ -1583,113 +1583,113 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G40" t="n">
-        <v>8.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>HNW1</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G41" t="n">
-        <v>44.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Call backs</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G42" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G43" t="n">
-        <v>44.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="44">
@@ -1703,80 +1703,80 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G44" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>HNW4</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G45" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CL NEW</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G46" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="47">
@@ -1786,36 +1786,36 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HNW4</t>
+          <t>HNW3</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G47" t="n">
-        <v>4.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1823,105 +1823,105 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HNW2</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G48" t="n">
-        <v>44.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Quotes</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G49" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G50" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ACK</t>
+          <t>HNW4</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G51" t="n">
-        <v>44.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="52">
@@ -1935,51 +1935,51 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G52" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MKT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G53" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="54">
@@ -1989,15 +1989,15 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2005,16 +2005,16 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G54" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2022,90 +2022,90 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>HNW2</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G55" t="n">
-        <v>4.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G56" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G57" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2113,111 +2113,111 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ACK</t>
+          <t>HNW1</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G58" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>HNW3</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G59" t="n">
-        <v>8.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G60" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>HNW4</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G61" t="n">
-        <v>8.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2229,24 +2229,24 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ACK</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G62" t="n">
-        <v>8.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2254,28 +2254,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HNW3</t>
+          <t>IR-CLAIMS</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G63" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2287,18 +2287,18 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G64" t="n">
-        <v>8.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="65">
@@ -2308,26 +2308,26 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G65" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="66">
@@ -2341,22 +2341,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Virat Sharma</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>CLOSE</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G66" t="n">
-        <v>8.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="67">
@@ -2366,15 +2366,15 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2382,16 +2382,16 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G67" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2399,86 +2399,86 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>ROF</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G68" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G69" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G70" t="n">
-        <v>4.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2486,22 +2486,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G71" t="n">
-        <v>8.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="72">
@@ -2511,61 +2511,61 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>ACK</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G72" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G73" t="n">
-        <v>8.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2573,86 +2573,86 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G74" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CL NEW</t>
+          <t>Quotes</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G75" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>ACK</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G76" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2660,22 +2660,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G77" t="n">
-        <v>4.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="78">
@@ -2689,32 +2689,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>CL Error</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G78" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2722,18 +2722,18 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>ROF</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G79" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="80">
@@ -2743,15 +2743,15 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G80" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="81">
@@ -2776,11 +2776,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2788,10 +2788,10 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G81" t="n">
-        <v>20.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="82">
@@ -2801,61 +2801,61 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G82" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G83" t="n">
-        <v>20.83718676277778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Virat Sharma</t>
+          <t>Vijay Shevate</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>HNW2</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G84" t="n">
-        <v>4.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2896,18 +2896,18 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Quotes</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G85" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="86">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2925,57 +2925,57 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>Quotes</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G86" t="n">
-        <v>4.837186762777778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>HNW2</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G87" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2983,28 +2983,28 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>HNW4</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G88" t="n">
-        <v>8.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3012,18 +3012,18 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>REN</t>
+          <t>IR-CLAIMS</t>
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G89" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="90">
@@ -3033,200 +3033,200 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Virat Sharma</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>HNW1</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G90" t="n">
-        <v>44.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Commercial Lines</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Akanksha Jadhav</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CL Error</t>
+          <t>ROF</t>
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G91" t="n">
-        <v>4.837186762777778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Personal Lines</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G92" t="n">
-        <v>44.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Claims</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>REN</t>
+          <t>CLOSE</t>
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44840.79986039756</v>
       </c>
       <c r="G93" t="n">
-        <v>44.83718676277778</v>
+        <v>23.99117911861111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>HNW</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Quotes</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44840.13319373089</v>
       </c>
       <c r="G94" t="n">
-        <v>8.837186762777778</v>
+        <v>7.991179118611112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ajay Upadhyaya</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Discrpency</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G95" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Claims</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IR-CLAIMS</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44838.9437041854</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G96" t="n">
-        <v>4.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="97">
@@ -3240,22 +3240,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Marvin Raj</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>HNW2</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44840.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G97" t="n">
-        <v>44.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="98">
@@ -3265,84 +3265,84 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Akanksha Jadhav</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>HNW2</t>
+          <t>Discrpency</t>
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44839.11037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G98" t="n">
-        <v>8.837186762777778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Personal Lines</t>
+          <t>Flood</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tom Hanks</t>
+          <t>Marvin Raj</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ROF</t>
+          <t>Call backs</t>
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G99" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HNW</t>
+          <t>Commercial Lines</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>HNW3</t>
+          <t>CL NEW</t>
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44840.29986039756</v>
       </c>
       <c r="G100" t="n">
-        <v>20.83718676277778</v>
+        <v>11.99117911861111</v>
       </c>
     </row>
     <row r="101">
@@ -3352,26 +3352,26 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Vijay Shevate</t>
+          <t>Ajay Upadhyaya</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44838.61037085206</v>
+        <v>44839.79986039756</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44839.61037085206</v>
+        <v>44841.79986039756</v>
       </c>
       <c r="G101" t="n">
-        <v>20.83718676277778</v>
+        <v>47.99117911861112</v>
       </c>
     </row>
   </sheetData>
